--- a/LuBan/Datas/__tables__.xlsx
+++ b/LuBan/Datas/__tables__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20231" windowHeight="8580"/>
+    <workbookView windowWidth="27180" windowHeight="11520"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
   <si>
     <t>##var</t>
   </si>
@@ -31,15 +31,15 @@
     <t>input</t>
   </si>
   <si>
+    <t>group</t>
+  </si>
+  <si>
     <t>index</t>
   </si>
   <si>
     <t>mode</t>
   </si>
   <si>
-    <t>group</t>
-  </si>
-  <si>
     <t>comment</t>
   </si>
   <si>
@@ -70,15 +70,15 @@
     <t>文件列表</t>
   </si>
   <si>
+    <t>分组</t>
+  </si>
+  <si>
     <t>表id字段</t>
   </si>
   <si>
     <t>模式</t>
   </si>
   <si>
-    <t>分组</t>
-  </si>
-  <si>
     <t>注释</t>
   </si>
   <si>
@@ -94,28 +94,61 @@
     <t>可以多个，以逗号','分隔</t>
   </si>
   <si>
+    <t>取值c|s|e，可以有多个，以逗号','分隔。空则表示属于所有分组</t>
+  </si>
+  <si>
     <t>为空的话自动取value_type中第一个字段,多主键联合索引为key1+key2,多主键独立索引为"key1,key2"</t>
   </si>
   <si>
     <t>取值one|map|list，为空自动为map</t>
   </si>
   <si>
-    <t>取值c|s|e，可以有多个，以逗号','分隔。空则表示属于所有分组</t>
-  </si>
-  <si>
     <t>用于本地化。可以多个，以逗号分隔</t>
   </si>
   <si>
     <t>默认为 &lt;module&gt;_&lt;name&gt;.&lt;suffix&gt;</t>
   </si>
   <si>
-    <t>item.TbItem</t>
-  </si>
-  <si>
-    <t>Item</t>
-  </si>
-  <si>
-    <t>item.xlsx</t>
+    <t>AITable</t>
+  </si>
+  <si>
+    <t>AIConfig</t>
+  </si>
+  <si>
+    <t>Common/A_AI.xlsx</t>
+  </si>
+  <si>
+    <t>c,s</t>
+  </si>
+  <si>
+    <t>StartMachineTable</t>
+  </si>
+  <si>
+    <t>StartMachineConfig</t>
+  </si>
+  <si>
+    <t>Server/S_StartMachine.xlsx</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>StartProcessTable</t>
+  </si>
+  <si>
+    <t>StartProcessConfig</t>
+  </si>
+  <si>
+    <t>Server/S_StartProcess.xlsx</t>
+  </si>
+  <si>
+    <t>StartZoneTable</t>
+  </si>
+  <si>
+    <t>StartZoneConfig</t>
+  </si>
+  <si>
+    <t>Server/S_StartZone.xlsx</t>
   </si>
 </sst>
 </file>
@@ -128,7 +161,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,11 +170,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -275,6 +314,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -475,12 +521,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -589,10 +650,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -601,36 +662,33 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -640,103 +698,112 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="31">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1057,136 +1124,198 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelRow="6"/>
   <cols>
-    <col min="2" max="2" width="20.3796296296296" customWidth="1"/>
-    <col min="3" max="3" width="10.1296296296296" customWidth="1"/>
-    <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="24.3796296296296" customWidth="1"/>
-    <col min="6" max="9" width="18" customWidth="1"/>
-    <col min="10" max="10" width="18.3796296296296" customWidth="1"/>
+    <col min="1" max="1" width="6.83333333333333" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.75" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.25" style="2" customWidth="1"/>
+    <col min="4" max="4" width="56" style="2" customWidth="1"/>
+    <col min="5" max="5" width="33.25" style="2" customWidth="1"/>
+    <col min="6" max="6" width="58.4166666666667" style="2" customWidth="1"/>
+    <col min="7" max="7" width="96.0833333333333" style="2" customWidth="1"/>
+    <col min="8" max="8" width="34.75" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.4166666666667" style="2" customWidth="1"/>
+    <col min="11" max="11" width="33.4166666666667" style="2" customWidth="1"/>
+    <col min="12" max="12" width="5.58333333333333" style="2" customWidth="1"/>
+    <col min="13" max="13" width="37.9166666666667" style="2" customWidth="1"/>
+    <col min="14" max="14" width="8.58333333333333" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:13">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:14">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:12">
-      <c r="A2" s="1" t="s">
+    <row r="2" s="1" customFormat="1" spans="1:13">
+      <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:12">
-      <c r="A3" s="1" t="s">
+    <row r="3" s="1" customFormat="1" spans="1:13">
+      <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="2:5">
-      <c r="B4" t="s">
+    <row r="4" spans="2:6">
+      <c r="B4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D4" t="b">
+      <c r="D4" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>33</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/LuBan/Datas/__tables__.xlsx
+++ b/LuBan/Datas/__tables__.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
   <si>
     <t>##var</t>
   </si>
@@ -149,6 +149,15 @@
   </si>
   <si>
     <t>Server/S_StartZone.xlsx</t>
+  </si>
+  <si>
+    <t>StartSceneTable</t>
+  </si>
+  <si>
+    <t>StartSceneConfig</t>
+  </si>
+  <si>
+    <t>Server/S_StartScene.xlsx</t>
   </si>
 </sst>
 </file>
@@ -792,7 +801,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -800,9 +809,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1124,13 +1130,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="6.83333333333333" style="2" customWidth="1"/>
     <col min="2" max="2" width="20.75" style="2" customWidth="1"/>
@@ -1149,104 +1155,104 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:14">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:13">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:13">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="1" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1315,6 +1321,23 @@
         <v>44</v>
       </c>
       <c r="F7" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>38</v>
       </c>
     </row>

--- a/LuBan/Datas/__tables__.xlsx
+++ b/LuBan/Datas/__tables__.xlsx
@@ -1133,7 +1133,7 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelRow="7"/>

--- a/LuBan/Datas/__tables__.xlsx
+++ b/LuBan/Datas/__tables__.xlsx
@@ -1132,8 +1132,8 @@
   <sheetPr/>
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelRow="7"/>

--- a/LuBan/Datas/__tables__.xlsx
+++ b/LuBan/Datas/__tables__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27180" windowHeight="11520"/>
+    <workbookView windowWidth="28360" windowHeight="15820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
   <si>
     <t>##var</t>
   </si>
@@ -158,6 +158,15 @@
   </si>
   <si>
     <t>Server/S_StartScene.xlsx</t>
+  </si>
+  <si>
+    <t>ServerInfoTable</t>
+  </si>
+  <si>
+    <t>ServerInfoConfig</t>
+  </si>
+  <si>
+    <t>Server/S_ServerInfo.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1130,13 +1139,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
     <col min="1" max="1" width="6.83333333333333" style="2" customWidth="1"/>
     <col min="2" max="2" width="20.75" style="2" customWidth="1"/>
@@ -1341,6 +1350,23 @@
         <v>38</v>
       </c>
     </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
